--- a/errors.xlsx
+++ b/errors.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauls/Desktop/Projects/Bight18/Bight2018-TestData/Production/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="16320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="batch" sheetId="1" r:id="rId1"/>
     <sheet name="results" sheetId="2" r:id="rId2"/>
     <sheet name="wq" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8550" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8550" uniqueCount="162">
   <si>
     <t>ToxBatch</t>
   </si>
@@ -498,6 +490,24 @@
   <si>
     <t>Lab</t>
   </si>
+  <si>
+    <t>B18-8417</t>
+  </si>
+  <si>
+    <t>B18-8413</t>
+  </si>
+  <si>
+    <t>B18-8409</t>
+  </si>
+  <si>
+    <t>B18-8411</t>
+  </si>
+  <si>
+    <t>B18-8407</t>
+  </si>
+  <si>
+    <t>B18-8391</t>
+  </si>
 </sst>
 </file>
 
@@ -906,7 +916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,25 +930,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="8.875" style="2"/>
+    <col min="4" max="4" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="31.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1064,34 +1074,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="125.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="7.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1763,7 +1773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1875,7 +1885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -2155,7 +2165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -2211,7 +2221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -2267,7 +2277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -2435,7 +2445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -2603,7 +2613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -2771,7 +2781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2995,7 +3005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3163,7 +3173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -3219,7 +3229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -3275,7 +3285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -3387,7 +3397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +3453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -3499,7 +3509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -3555,7 +3565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -3611,7 +3621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -3667,7 +3677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -3723,7 +3733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
@@ -3779,7 +3789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
@@ -3835,7 +3845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
@@ -3891,7 +3901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>35</v>
       </c>
@@ -3947,7 +3957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>35</v>
       </c>
@@ -4003,7 +4013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>35</v>
       </c>
@@ -4059,7 +4069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>35</v>
       </c>
@@ -4115,7 +4125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
@@ -4171,7 +4181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>35</v>
       </c>
@@ -4227,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>35</v>
       </c>
@@ -4283,7 +4293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>35</v>
       </c>
@@ -4339,7 +4349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
@@ -4395,7 +4405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>35</v>
       </c>
@@ -4451,7 +4461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>35</v>
       </c>
@@ -4507,7 +4517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
@@ -4563,7 +4573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
@@ -4619,7 +4629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>35</v>
       </c>
@@ -4675,7 +4685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>35</v>
       </c>
@@ -4731,7 +4741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>35</v>
       </c>
@@ -4787,7 +4797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>35</v>
       </c>
@@ -4843,7 +4853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>35</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>35</v>
       </c>
@@ -5011,7 +5021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>35</v>
       </c>
@@ -5067,9 +5077,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>64</v>
@@ -5123,9 +5133,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>64</v>
@@ -5179,9 +5189,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>64</v>
@@ -5235,9 +5245,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>64</v>
@@ -5291,9 +5301,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>64</v>
@@ -5347,9 +5357,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>64</v>
@@ -5403,9 +5413,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>64</v>
@@ -5459,9 +5469,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>64</v>
@@ -5515,9 +5525,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>64</v>
@@ -5571,9 +5581,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>64</v>
@@ -5627,9 +5637,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>64</v>
@@ -5683,9 +5693,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>64</v>
@@ -5739,9 +5749,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>64</v>
@@ -5795,9 +5805,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>64</v>
@@ -5851,9 +5861,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>64</v>
@@ -5907,9 +5917,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>64</v>
@@ -5963,9 +5973,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>64</v>
@@ -6019,9 +6029,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>64</v>
@@ -6075,9 +6085,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>64</v>
@@ -6131,9 +6141,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>64</v>
@@ -6187,9 +6197,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>64</v>
@@ -6243,9 +6253,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>64</v>
@@ -6299,9 +6309,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>64</v>
@@ -6355,9 +6365,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>64</v>
@@ -6411,9 +6421,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>64</v>
@@ -6467,9 +6477,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>64</v>
@@ -6523,9 +6533,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>64</v>
@@ -6579,9 +6589,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>64</v>
@@ -6635,9 +6645,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>64</v>
@@ -6691,9 +6701,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>64</v>
@@ -6747,9 +6757,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>97</v>
@@ -6803,9 +6813,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>97</v>
@@ -6859,9 +6869,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>97</v>
@@ -6915,9 +6925,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>97</v>
@@ -6971,9 +6981,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>97</v>
@@ -7027,9 +7037,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>97</v>
@@ -7083,9 +7093,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>97</v>
@@ -7139,9 +7149,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>97</v>
@@ -7195,9 +7205,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>97</v>
@@ -7251,9 +7261,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>97</v>
@@ -7307,9 +7317,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>64</v>
@@ -7363,9 +7373,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>64</v>
@@ -7419,9 +7429,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>64</v>
@@ -7475,9 +7485,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>64</v>
@@ -7531,9 +7541,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>64</v>
@@ -7587,9 +7597,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>64</v>
@@ -7643,9 +7653,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>64</v>
@@ -7699,9 +7709,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>64</v>
@@ -7755,9 +7765,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>64</v>
@@ -7811,9 +7821,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>64</v>
@@ -7867,9 +7877,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>121</v>
@@ -7923,9 +7933,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>121</v>
@@ -7979,9 +7989,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>121</v>
@@ -8035,9 +8045,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>121</v>
@@ -8091,9 +8101,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>121</v>
@@ -8147,9 +8157,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>121</v>
@@ -8203,9 +8213,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>121</v>
@@ -8259,9 +8269,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>121</v>
@@ -8315,9 +8325,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>121</v>
@@ -8371,9 +8381,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>121</v>
@@ -8436,32 +8446,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="26" customWidth="1"/>
     <col min="12" max="12" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="79.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="79.875" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="7.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8512,7 +8522,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -8563,7 +8573,7 @@
       </c>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -8614,7 +8624,7 @@
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -8665,7 +8675,7 @@
       </c>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -8716,7 +8726,7 @@
       </c>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -8767,7 +8777,7 @@
       </c>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8818,7 +8828,7 @@
       </c>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -8867,7 +8877,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -8916,7 +8926,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -8963,7 +8973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -9010,7 +9020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -9057,7 +9067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -9104,7 +9114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -9151,7 +9161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -9199,7 +9209,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -9247,7 +9257,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -9296,7 +9306,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -9343,7 +9353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -9392,7 +9402,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -9439,7 +9449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -9486,7 +9496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -9533,7 +9543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -9582,7 +9592,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -9631,7 +9641,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -9678,7 +9688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -9726,7 +9736,7 @@
       </c>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -9774,7 +9784,7 @@
       </c>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -9821,7 +9831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -9915,7 +9925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -9962,7 +9972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -10009,7 +10019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -10057,7 +10067,7 @@
       </c>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -10104,7 +10114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -10151,7 +10161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -10198,7 +10208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -10245,7 +10255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -10292,7 +10302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -10339,7 +10349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -10386,7 +10396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -10434,7 +10444,7 @@
       </c>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -10482,7 +10492,7 @@
       </c>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -10529,7 +10539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -10576,7 +10586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -10623,7 +10633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -10670,7 +10680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -10717,7 +10727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
@@ -10764,7 +10774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
@@ -10812,7 +10822,7 @@
       </c>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
@@ -10860,7 +10870,7 @@
       </c>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>35</v>
       </c>
@@ -10907,7 +10917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>35</v>
       </c>
@@ -10954,7 +10964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>35</v>
       </c>
@@ -11001,7 +11011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>35</v>
       </c>
@@ -11048,7 +11058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
@@ -11096,7 +11106,7 @@
       </c>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>35</v>
       </c>
@@ -11144,7 +11154,7 @@
       </c>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>35</v>
       </c>
@@ -11192,7 +11202,7 @@
       </c>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>35</v>
       </c>
@@ -11240,7 +11250,7 @@
       </c>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
@@ -11288,7 +11298,7 @@
       </c>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>35</v>
       </c>
@@ -11336,7 +11346,7 @@
       </c>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>35</v>
       </c>
@@ -11384,7 +11394,7 @@
       </c>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
@@ -11431,7 +11441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
@@ -11478,7 +11488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>35</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>35</v>
       </c>
@@ -11572,7 +11582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>35</v>
       </c>
@@ -11619,7 +11629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>35</v>
       </c>
@@ -11666,7 +11676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>35</v>
       </c>
@@ -11713,7 +11723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
@@ -11760,7 +11770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>35</v>
       </c>
@@ -11807,7 +11817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>35</v>
       </c>
@@ -11854,7 +11864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -11905,7 +11915,7 @@
       </c>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>35</v>
       </c>
@@ -11953,7 +11963,7 @@
       </c>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>35</v>
       </c>
@@ -12001,7 +12011,7 @@
       </c>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>35</v>
       </c>
@@ -12050,7 +12060,7 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>35</v>
       </c>
@@ -12097,7 +12107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>35</v>
       </c>
@@ -12146,7 +12156,7 @@
       <c r="P77" s="19"/>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>35</v>
       </c>
@@ -12197,7 +12207,7 @@
       </c>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>35</v>
       </c>
@@ -12244,7 +12254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
@@ -12293,7 +12303,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="10"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
@@ -12340,7 +12350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -12387,7 +12397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>35</v>
       </c>
@@ -12436,7 +12446,7 @@
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>35</v>
       </c>
@@ -12485,7 +12495,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="10"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>35</v>
       </c>
@@ -12534,7 +12544,7 @@
       <c r="P85" s="19"/>
       <c r="Q85" s="10"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>35</v>
       </c>
@@ -12583,7 +12593,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="10"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>35</v>
       </c>
@@ -12630,7 +12640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>35</v>
       </c>
@@ -12677,7 +12687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>35</v>
       </c>
@@ -12726,7 +12736,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="10"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>35</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>35</v>
       </c>
@@ -12822,7 +12832,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="10"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>35</v>
       </c>
@@ -12872,7 +12882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>35</v>
       </c>
@@ -12922,7 +12932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>35</v>
       </c>
@@ -12972,7 +12982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
@@ -13022,7 +13032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>35</v>
       </c>
@@ -13071,7 +13081,7 @@
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>35</v>
       </c>
@@ -13120,7 +13130,7 @@
       <c r="P97" s="20"/>
       <c r="Q97" s="16"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>35</v>
       </c>
@@ -13168,7 +13178,7 @@
       </c>
       <c r="P98" s="13"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>35</v>
       </c>
@@ -13216,7 +13226,7 @@
       </c>
       <c r="P99" s="13"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>35</v>
       </c>
@@ -13264,7 +13274,7 @@
       </c>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>35</v>
       </c>
@@ -13312,7 +13322,7 @@
       </c>
       <c r="P101" s="9"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>35</v>
       </c>
@@ -13361,7 +13371,7 @@
       <c r="P102" s="20"/>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>35</v>
       </c>
@@ -13409,7 +13419,7 @@
       </c>
       <c r="P103" s="20"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>35</v>
       </c>
@@ -13456,7 +13466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>35</v>
       </c>
@@ -13504,7 +13514,7 @@
       </c>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>35</v>
       </c>
@@ -13552,7 +13562,7 @@
       </c>
       <c r="P106" s="19"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>35</v>
       </c>
@@ -13601,7 +13611,7 @@
       <c r="P107" s="20"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>35</v>
       </c>
@@ -13649,7 +13659,7 @@
       </c>
       <c r="P108" s="20"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>35</v>
       </c>
@@ -13698,7 +13708,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="16"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>35</v>
       </c>
@@ -13745,7 +13755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>35</v>
       </c>
@@ -13792,7 +13802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>35</v>
       </c>
@@ -13839,7 +13849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>35</v>
       </c>
@@ -13887,7 +13897,7 @@
       </c>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>35</v>
       </c>
@@ -13935,7 +13945,7 @@
       </c>
       <c r="P114" s="19"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>35</v>
       </c>
@@ -13982,7 +13992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>35</v>
       </c>
@@ -14030,7 +14040,7 @@
       </c>
       <c r="P116" s="20"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>35</v>
       </c>
@@ -14077,7 +14087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>35</v>
       </c>
@@ -14125,7 +14135,7 @@
       </c>
       <c r="P118" s="20"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>35</v>
       </c>
@@ -14173,7 +14183,7 @@
       </c>
       <c r="P119" s="20"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>35</v>
       </c>
@@ -14221,7 +14231,7 @@
       </c>
       <c r="P120" s="20"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>35</v>
       </c>
@@ -14270,7 +14280,7 @@
       <c r="P121" s="20"/>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>35</v>
       </c>
@@ -14317,7 +14327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>35</v>
       </c>
@@ -14364,7 +14374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>35</v>
       </c>
@@ -14411,7 +14421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>35</v>
       </c>
@@ -14459,7 +14469,7 @@
       </c>
       <c r="P125" s="20"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>35</v>
       </c>
@@ -14507,7 +14517,7 @@
       </c>
       <c r="P126" s="20"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>35</v>
       </c>
@@ -14556,7 +14566,7 @@
       <c r="P127" s="20"/>
       <c r="Q127" s="15"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>35</v>
       </c>
@@ -14603,7 +14613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>35</v>
       </c>
@@ -14650,7 +14660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>35</v>
       </c>
@@ -14699,7 +14709,7 @@
       <c r="P130" s="19"/>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>35</v>
       </c>
@@ -14747,7 +14757,7 @@
       </c>
       <c r="P131" s="20"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>35</v>
       </c>
@@ -14795,7 +14805,7 @@
       </c>
       <c r="P132" s="20"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>35</v>
       </c>
@@ -14842,7 +14852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>35</v>
       </c>
@@ -14889,7 +14899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>35</v>
       </c>
@@ -14938,7 +14948,7 @@
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>35</v>
       </c>
@@ -14987,7 +14997,7 @@
       <c r="P136" s="19"/>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>35</v>
       </c>
@@ -15034,7 +15044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>35</v>
       </c>
@@ -15082,7 +15092,7 @@
       </c>
       <c r="P138" s="20"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>35</v>
       </c>
@@ -15129,7 +15139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>35</v>
       </c>
@@ -15176,7 +15186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>35</v>
       </c>
@@ -15224,7 +15234,7 @@
       </c>
       <c r="P141" s="20"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>35</v>
       </c>
@@ -15272,7 +15282,7 @@
       </c>
       <c r="P142" s="20"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>35</v>
       </c>
@@ -15319,7 +15329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>35</v>
       </c>
@@ -15366,7 +15376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>35</v>
       </c>
@@ -15414,7 +15424,7 @@
       </c>
       <c r="P145" s="20"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>35</v>
       </c>
@@ -15461,7 +15471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>35</v>
       </c>
@@ -15509,7 +15519,7 @@
       </c>
       <c r="P147" s="20"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>35</v>
       </c>
@@ -15557,7 +15567,7 @@
       </c>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>35</v>
       </c>
@@ -15604,7 +15614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>35</v>
       </c>
@@ -15652,7 +15662,7 @@
       </c>
       <c r="P150" s="20"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>35</v>
       </c>
@@ -15700,7 +15710,7 @@
       </c>
       <c r="P151" s="21"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>35</v>
       </c>
@@ -15748,7 +15758,7 @@
       </c>
       <c r="P152" s="20"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>35</v>
       </c>
@@ -15796,7 +15806,7 @@
       </c>
       <c r="P153" s="22"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>35</v>
       </c>
@@ -15843,7 +15853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>35</v>
       </c>
@@ -15890,7 +15900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>35</v>
       </c>
@@ -15938,7 +15948,7 @@
       </c>
       <c r="P156" s="13"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>35</v>
       </c>
@@ -15988,7 +15998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>35</v>
       </c>
@@ -16038,7 +16048,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>35</v>
       </c>
@@ -16088,7 +16098,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>35</v>
       </c>
@@ -16138,7 +16148,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>35</v>
       </c>
@@ -16188,7 +16198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>35</v>
       </c>
@@ -16238,7 +16248,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>35</v>
       </c>
@@ -16285,7 +16295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>35</v>
       </c>
@@ -16332,7 +16342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>35</v>
       </c>
@@ -16380,7 +16390,7 @@
       </c>
       <c r="P165" s="23"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>35</v>
       </c>
@@ -16427,7 +16437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>35</v>
       </c>
@@ -16474,7 +16484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>35</v>
       </c>
@@ -16521,7 +16531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>35</v>
       </c>
@@ -16569,7 +16579,7 @@
       </c>
       <c r="P169" s="20"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>35</v>
       </c>
@@ -16617,7 +16627,7 @@
       </c>
       <c r="P170" s="20"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>35</v>
       </c>
@@ -16668,7 +16678,7 @@
       </c>
       <c r="Q171" s="16"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>120</v>
       </c>
@@ -16718,7 +16728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>120</v>
       </c>
@@ -16768,7 +16778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>120</v>
       </c>
@@ -16818,7 +16828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>120</v>
       </c>
@@ -16868,7 +16878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>120</v>
       </c>
@@ -16918,7 +16928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>120</v>
       </c>
@@ -16968,7 +16978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>120</v>
       </c>
@@ -17018,7 +17028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>120</v>
       </c>
@@ -17068,7 +17078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>120</v>
       </c>
@@ -17118,7 +17128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>120</v>
       </c>
@@ -17166,7 +17176,7 @@
       </c>
       <c r="P181" s="20"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>120</v>
       </c>
@@ -17216,7 +17226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>120</v>
       </c>
@@ -17263,7 +17273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>120</v>
       </c>
@@ -17313,7 +17323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>120</v>
       </c>
@@ -17361,7 +17371,7 @@
       </c>
       <c r="P185" s="20"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>120</v>
       </c>
@@ -17408,7 +17418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>120</v>
       </c>
@@ -17455,7 +17465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>120</v>
       </c>
@@ -17502,7 +17512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>120</v>
       </c>
@@ -17549,7 +17559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>120</v>
       </c>
@@ -17596,7 +17606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>120</v>
       </c>
@@ -17643,7 +17653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>120</v>
       </c>
@@ -17690,7 +17700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>120</v>
       </c>
@@ -17738,7 +17748,7 @@
       </c>
       <c r="P193" s="20"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>120</v>
       </c>
@@ -17786,7 +17796,7 @@
       </c>
       <c r="P194" s="20"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>120</v>
       </c>
@@ -17834,7 +17844,7 @@
       </c>
       <c r="P195" s="20"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>120</v>
       </c>
@@ -17882,7 +17892,7 @@
       </c>
       <c r="P196" s="20"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>120</v>
       </c>
@@ -17929,7 +17939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>120</v>
       </c>
@@ -17977,7 +17987,7 @@
       </c>
       <c r="P198" s="20"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>120</v>
       </c>
@@ -18024,7 +18034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>120</v>
       </c>
@@ -18071,7 +18081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>120</v>
       </c>
@@ -18119,7 +18129,7 @@
       </c>
       <c r="P201" s="20"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>120</v>
       </c>
@@ -18166,7 +18176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>120</v>
       </c>
@@ -18213,7 +18223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>120</v>
       </c>
@@ -18261,7 +18271,7 @@
       </c>
       <c r="Q204" s="10"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>120</v>
       </c>
@@ -18309,7 +18319,7 @@
       </c>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>120</v>
       </c>
@@ -18359,7 +18369,7 @@
       <c r="Q206" s="10"/>
       <c r="R206" s="24"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>120</v>
       </c>
@@ -18407,7 +18417,7 @@
       </c>
       <c r="P207" s="20"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>120</v>
       </c>
@@ -18454,7 +18464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>120</v>
       </c>
@@ -18501,7 +18511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>120</v>
       </c>
@@ -18550,7 +18560,7 @@
       <c r="P210" s="10"/>
       <c r="Q210" s="24"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>120</v>
       </c>
@@ -18598,7 +18608,7 @@
       </c>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>120</v>
       </c>
@@ -18646,7 +18656,7 @@
       </c>
       <c r="P212" s="20"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>120</v>
       </c>
@@ -18694,7 +18704,7 @@
       </c>
       <c r="P213" s="20"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>120</v>
       </c>
@@ -18741,7 +18751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>120</v>
       </c>
@@ -18789,7 +18799,7 @@
       </c>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>120</v>
       </c>
@@ -18836,7 +18846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>120</v>
       </c>
@@ -18884,7 +18894,7 @@
       </c>
       <c r="P217" s="20"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>120</v>
       </c>
@@ -18931,7 +18941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>120</v>
       </c>
@@ -18978,7 +18988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>120</v>
       </c>
@@ -19026,7 +19036,7 @@
       </c>
       <c r="P220" s="20"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>120</v>
       </c>
@@ -19074,7 +19084,7 @@
       </c>
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>120</v>
       </c>
@@ -19121,7 +19131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>120</v>
       </c>
@@ -19168,7 +19178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>120</v>
       </c>
@@ -19216,7 +19226,7 @@
       </c>
       <c r="P224" s="19"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>120</v>
       </c>
@@ -19265,7 +19275,7 @@
       <c r="P225" s="10"/>
       <c r="Q225" s="10"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>120</v>
       </c>
@@ -19313,7 +19323,7 @@
       </c>
       <c r="P226" s="20"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>120</v>
       </c>
@@ -19362,7 +19372,7 @@
       <c r="P227" s="19"/>
       <c r="Q227" s="10"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>120</v>
       </c>
@@ -19411,7 +19421,7 @@
       <c r="P228" s="20"/>
       <c r="Q228" s="10"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>120</v>
       </c>
@@ -19458,7 +19468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>120</v>
       </c>
@@ -19506,7 +19516,7 @@
       </c>
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>120</v>
       </c>
@@ -19554,7 +19564,7 @@
       </c>
       <c r="P231" s="25"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>120</v>
       </c>
@@ -19601,7 +19611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>120</v>
       </c>
@@ -19651,7 +19661,7 @@
       <c r="Q233" s="10"/>
       <c r="R233" s="24"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>120</v>
       </c>
@@ -19699,7 +19709,7 @@
       </c>
       <c r="P234" s="20"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>120</v>
       </c>
@@ -19747,7 +19757,7 @@
       </c>
       <c r="P235" s="25"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>120</v>
       </c>
@@ -19794,7 +19804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>120</v>
       </c>
@@ -19844,7 +19854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>120</v>
       </c>
@@ -19895,7 +19905,7 @@
       </c>
       <c r="Q238" s="16"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>120</v>
       </c>
@@ -19945,7 +19955,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>120</v>
       </c>
@@ -19995,7 +20005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>120</v>
       </c>
@@ -20045,7 +20055,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>120</v>
       </c>
@@ -20095,7 +20105,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>120</v>
       </c>
@@ -20142,7 +20152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>120</v>
       </c>
@@ -20191,7 +20201,7 @@
       <c r="P244" s="10"/>
       <c r="Q244" s="16"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>120</v>
       </c>
@@ -20240,7 +20250,7 @@
       <c r="P245" s="19"/>
       <c r="Q245" s="24"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>120</v>
       </c>
@@ -20289,7 +20299,7 @@
       <c r="P246" s="19"/>
       <c r="Q246" s="10"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>120</v>
       </c>
@@ -20337,7 +20347,7 @@
       </c>
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>120</v>
       </c>
@@ -20384,7 +20394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>120</v>
       </c>
@@ -20431,7 +20441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>120</v>
       </c>
@@ -20479,7 +20489,7 @@
       </c>
       <c r="P250" s="20"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>120</v>
       </c>
@@ -20529,7 +20539,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>109</v>
       </c>
@@ -20579,7 +20589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>109</v>
       </c>
@@ -20629,7 +20639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>109</v>
       </c>
@@ -20679,7 +20689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>109</v>
       </c>
@@ -20729,7 +20739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>109</v>
       </c>
@@ -20777,7 +20787,7 @@
       </c>
       <c r="Q256" s="10"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>109</v>
       </c>
@@ -20827,7 +20837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>109</v>
       </c>
@@ -20877,7 +20887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>109</v>
       </c>
@@ -20927,7 +20937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>109</v>
       </c>
@@ -20977,7 +20987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>109</v>
       </c>
@@ -21027,7 +21037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>109</v>
       </c>
@@ -21077,7 +21087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>109</v>
       </c>
@@ -21127,7 +21137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>109</v>
       </c>
@@ -21175,7 +21185,7 @@
       </c>
       <c r="P264" s="20"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>109</v>
       </c>
@@ -21223,7 +21233,7 @@
       </c>
       <c r="P265" s="20"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>109</v>
       </c>
@@ -21271,7 +21281,7 @@
       </c>
       <c r="P266" s="20"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>109</v>
       </c>
@@ -21319,7 +21329,7 @@
       </c>
       <c r="P267" s="20"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>109</v>
       </c>
@@ -21367,7 +21377,7 @@
       </c>
       <c r="P268" s="20"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>109</v>
       </c>
@@ -21414,7 +21424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>109</v>
       </c>
@@ -21461,7 +21471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>109</v>
       </c>
@@ -21508,7 +21518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>109</v>
       </c>
@@ -21555,7 +21565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>109</v>
       </c>
@@ -21602,7 +21612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>109</v>
       </c>
@@ -21649,7 +21659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>109</v>
       </c>
@@ -21696,7 +21706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>109</v>
       </c>
@@ -21746,7 +21756,7 @@
       <c r="Q276" s="16"/>
       <c r="R276" s="10"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>109</v>
       </c>
@@ -21794,7 +21804,7 @@
       </c>
       <c r="P277" s="20"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>109</v>
       </c>
@@ -21842,7 +21852,7 @@
       </c>
       <c r="P278" s="20"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>109</v>
       </c>
@@ -21889,7 +21899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>109</v>
       </c>
@@ -21937,7 +21947,7 @@
       </c>
       <c r="P280" s="20"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>109</v>
       </c>
@@ -21985,7 +21995,7 @@
       </c>
       <c r="P281" s="20"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>109</v>
       </c>
@@ -22033,7 +22043,7 @@
       </c>
       <c r="P282" s="20"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>109</v>
       </c>
@@ -22080,7 +22090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>109</v>
       </c>
@@ -22127,7 +22137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>109</v>
       </c>
@@ -22174,7 +22184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>109</v>
       </c>
@@ -22221,7 +22231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>109</v>
       </c>
@@ -22268,7 +22278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>109</v>
       </c>
@@ -22316,7 +22326,7 @@
       </c>
       <c r="P288" s="20"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>109</v>
       </c>
@@ -22364,7 +22374,7 @@
       </c>
       <c r="P289" s="20"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>109</v>
       </c>
@@ -22412,7 +22422,7 @@
       </c>
       <c r="P290" s="20"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>109</v>
       </c>
@@ -22460,7 +22470,7 @@
       </c>
       <c r="P291" s="20"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>109</v>
       </c>
@@ -22508,7 +22518,7 @@
       </c>
       <c r="P292" s="20"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>109</v>
       </c>
@@ -22555,7 +22565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>109</v>
       </c>
@@ -22604,7 +22614,7 @@
       <c r="P294" s="10"/>
       <c r="Q294" s="10"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>109</v>
       </c>
@@ -22651,7 +22661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>109</v>
       </c>
@@ -22698,7 +22708,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>109</v>
       </c>
@@ -22746,7 +22756,7 @@
       </c>
       <c r="P297" s="20"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>109</v>
       </c>
@@ -22793,7 +22803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>109</v>
       </c>
@@ -22840,7 +22850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>109</v>
       </c>
@@ -22887,7 +22897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>109</v>
       </c>
@@ -22934,7 +22944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>109</v>
       </c>
@@ -22982,7 +22992,7 @@
       </c>
       <c r="P302" s="20"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>109</v>
       </c>
@@ -23029,7 +23039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>109</v>
       </c>
@@ -23077,7 +23087,7 @@
       </c>
       <c r="P304" s="20"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>109</v>
       </c>
@@ -23125,7 +23135,7 @@
       </c>
       <c r="P305" s="19"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>109</v>
       </c>
@@ -23174,7 +23184,7 @@
       <c r="P306" s="19"/>
       <c r="Q306" s="10"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>109</v>
       </c>
@@ -23223,7 +23233,7 @@
       <c r="P307" s="10"/>
       <c r="Q307" s="16"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>109</v>
       </c>
@@ -23271,7 +23281,7 @@
       </c>
       <c r="P308" s="20"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>109</v>
       </c>
@@ -23318,7 +23328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>109</v>
       </c>
@@ -23366,7 +23376,7 @@
       </c>
       <c r="P310" s="20"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>109</v>
       </c>
@@ -23414,7 +23424,7 @@
       </c>
       <c r="P311" s="25"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>109</v>
       </c>
@@ -23462,7 +23472,7 @@
       </c>
       <c r="P312" s="25"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>109</v>
       </c>
@@ -23512,7 +23522,7 @@
       <c r="Q313" s="10"/>
       <c r="R313" s="10"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>109</v>
       </c>
@@ -23559,7 +23569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>109</v>
       </c>
@@ -23606,7 +23616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>109</v>
       </c>
@@ -23654,7 +23664,7 @@
       </c>
       <c r="P316" s="20"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>109</v>
       </c>
@@ -23701,7 +23711,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>109</v>
       </c>
@@ -23748,7 +23758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>109</v>
       </c>
@@ -23797,7 +23807,7 @@
       <c r="P319" s="19"/>
       <c r="Q319" s="10"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>109</v>
       </c>
@@ -23844,7 +23854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>109</v>
       </c>
@@ -23891,7 +23901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>109</v>
       </c>
@@ -23942,7 +23952,7 @@
       </c>
       <c r="Q322" s="10"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>109</v>
       </c>
@@ -23989,7 +23999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>109</v>
       </c>
@@ -24038,7 +24048,7 @@
       <c r="P324" s="19"/>
       <c r="Q324" s="10"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>109</v>
       </c>
@@ -24087,7 +24097,7 @@
       <c r="P325" s="10"/>
       <c r="Q325" s="10"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>109</v>
       </c>
@@ -24136,7 +24146,7 @@
       <c r="P326" s="19"/>
       <c r="Q326" s="10"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>109</v>
       </c>
@@ -24183,7 +24193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>109</v>
       </c>
@@ -24230,7 +24240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>109</v>
       </c>
@@ -24278,7 +24288,7 @@
       </c>
       <c r="P329" s="20"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>109</v>
       </c>
@@ -24326,7 +24336,7 @@
       </c>
       <c r="P330" s="20"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>109</v>
       </c>
@@ -24376,7 +24386,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>87</v>
       </c>
@@ -24426,7 +24436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>87</v>
       </c>
@@ -24476,7 +24486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>87</v>
       </c>
@@ -24526,7 +24536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>87</v>
       </c>
@@ -24576,7 +24586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>87</v>
       </c>
@@ -24624,7 +24634,7 @@
       </c>
       <c r="Q336" s="16"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>87</v>
       </c>
@@ -24674,7 +24684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>87</v>
       </c>
@@ -24724,7 +24734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>87</v>
       </c>
@@ -24774,7 +24784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>87</v>
       </c>
@@ -24823,7 +24833,7 @@
       <c r="P340" s="20"/>
       <c r="Q340" s="10"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>87</v>
       </c>
@@ -24873,7 +24883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>87</v>
       </c>
@@ -24923,7 +24933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>87</v>
       </c>
@@ -24973,7 +24983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>87</v>
       </c>
@@ -25023,7 +25033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>87</v>
       </c>
@@ -25071,7 +25081,7 @@
       </c>
       <c r="P345" s="20"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>87</v>
       </c>
@@ -25119,7 +25129,7 @@
       </c>
       <c r="P346" s="20"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>87</v>
       </c>
@@ -25166,7 +25176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>87</v>
       </c>
@@ -25214,7 +25224,7 @@
       </c>
       <c r="P348" s="20"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>87</v>
       </c>
@@ -25262,7 +25272,7 @@
       </c>
       <c r="P349" s="20"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>87</v>
       </c>
@@ -25309,7 +25319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>87</v>
       </c>
@@ -25356,7 +25366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>87</v>
       </c>
@@ -25403,7 +25413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>87</v>
       </c>
@@ -25450,7 +25460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>87</v>
       </c>
@@ -25497,7 +25507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>87</v>
       </c>
@@ -25544,7 +25554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>87</v>
       </c>
@@ -25592,7 +25602,7 @@
       </c>
       <c r="P356" s="20"/>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>87</v>
       </c>
@@ -25640,7 +25650,7 @@
       </c>
       <c r="P357" s="20"/>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>87</v>
       </c>
@@ -25688,7 +25698,7 @@
       </c>
       <c r="P358" s="20"/>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>87</v>
       </c>
@@ -25735,7 +25745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>87</v>
       </c>
@@ -25783,7 +25793,7 @@
       </c>
       <c r="P360" s="20"/>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>87</v>
       </c>
@@ -25831,7 +25841,7 @@
       </c>
       <c r="P361" s="20"/>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>87</v>
       </c>
@@ -25879,7 +25889,7 @@
       </c>
       <c r="P362" s="20"/>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>87</v>
       </c>
@@ -25926,7 +25936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>87</v>
       </c>
@@ -25973,7 +25983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>87</v>
       </c>
@@ -26021,7 +26031,7 @@
       </c>
       <c r="P365" s="20"/>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>87</v>
       </c>
@@ -26069,7 +26079,7 @@
       </c>
       <c r="P366" s="20"/>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>87</v>
       </c>
@@ -26117,7 +26127,7 @@
       </c>
       <c r="P367" s="20"/>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>87</v>
       </c>
@@ -26165,7 +26175,7 @@
       </c>
       <c r="P368" s="20"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>87</v>
       </c>
@@ -26213,7 +26223,7 @@
       </c>
       <c r="P369" s="20"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>87</v>
       </c>
@@ -26260,7 +26270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>87</v>
       </c>
@@ -26307,7 +26317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>87</v>
       </c>
@@ -26354,7 +26364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>87</v>
       </c>
@@ -26402,7 +26412,7 @@
       </c>
       <c r="P373" s="20"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>87</v>
       </c>
@@ -26449,7 +26459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>87</v>
       </c>
@@ -26496,7 +26506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>87</v>
       </c>
@@ -26543,7 +26553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>87</v>
       </c>
@@ -26590,7 +26600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>87</v>
       </c>
@@ -26637,7 +26647,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>87</v>
       </c>
@@ -26684,7 +26694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>87</v>
       </c>
@@ -26731,7 +26741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>87</v>
       </c>
@@ -26778,7 +26788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>87</v>
       </c>
@@ -26826,7 +26836,7 @@
       </c>
       <c r="P382" s="20"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>87</v>
       </c>
@@ -26874,7 +26884,7 @@
       </c>
       <c r="P383" s="20"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>87</v>
       </c>
@@ -26923,7 +26933,7 @@
       <c r="P384" s="20"/>
       <c r="R384" s="24"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>87</v>
       </c>
@@ -26970,7 +26980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>87</v>
       </c>
@@ -27018,7 +27028,7 @@
       </c>
       <c r="P386" s="20"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>87</v>
       </c>
@@ -27065,7 +27075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>87</v>
       </c>
@@ -27113,7 +27123,7 @@
       </c>
       <c r="Q388" s="16"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>87</v>
       </c>
@@ -27160,7 +27170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>87</v>
       </c>
@@ -27208,7 +27218,7 @@
       </c>
       <c r="P390" s="20"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>87</v>
       </c>
@@ -27256,7 +27266,7 @@
       </c>
       <c r="P391" s="25"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>87</v>
       </c>
@@ -27304,7 +27314,7 @@
       </c>
       <c r="Q392" s="10"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>87</v>
       </c>
@@ -27351,7 +27361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>87</v>
       </c>
@@ -27398,7 +27408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>87</v>
       </c>
@@ -27446,7 +27456,7 @@
       </c>
       <c r="P395" s="20"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>87</v>
       </c>
@@ -27493,7 +27503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>87</v>
       </c>
@@ -27540,7 +27550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>87</v>
       </c>
@@ -27589,7 +27599,7 @@
       <c r="P398" s="13"/>
       <c r="Q398" s="10"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>87</v>
       </c>
@@ -27639,7 +27649,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>87</v>
       </c>
@@ -27689,7 +27699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>87</v>
       </c>
@@ -27739,7 +27749,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>87</v>
       </c>
@@ -27789,7 +27799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>87</v>
       </c>
@@ -27836,7 +27846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>87</v>
       </c>
@@ -27883,7 +27893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>87</v>
       </c>
@@ -27930,7 +27940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>87</v>
       </c>
@@ -27977,7 +27987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>87</v>
       </c>
@@ -28024,7 +28034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>87</v>
       </c>
@@ -28072,7 +28082,7 @@
       </c>
       <c r="P408" s="20"/>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>87</v>
       </c>
@@ -28119,7 +28129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>87</v>
       </c>
@@ -28167,7 +28177,7 @@
       </c>
       <c r="P410" s="20"/>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>87</v>
       </c>
@@ -28217,7 +28227,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>96</v>
       </c>
@@ -28267,7 +28277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>96</v>
       </c>
@@ -28317,7 +28327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>96</v>
       </c>
@@ -28367,7 +28377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>96</v>
       </c>
@@ -28417,7 +28427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>96</v>
       </c>
@@ -28467,7 +28477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>96</v>
       </c>
@@ -28517,7 +28527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>96</v>
       </c>
@@ -28567,7 +28577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>96</v>
       </c>
@@ -28615,7 +28625,7 @@
       </c>
       <c r="P419" s="20"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>96</v>
       </c>
@@ -28665,7 +28675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>96</v>
       </c>
@@ -28715,7 +28725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>96</v>
       </c>
@@ -28765,7 +28775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>96</v>
       </c>
@@ -28813,7 +28823,7 @@
       </c>
       <c r="Q423" s="10"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>96</v>
       </c>
@@ -28861,7 +28871,7 @@
       </c>
       <c r="P424" s="9"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>96</v>
       </c>
@@ -28909,7 +28919,7 @@
       </c>
       <c r="P425" s="20"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>96</v>
       </c>
@@ -28957,7 +28967,7 @@
       </c>
       <c r="P426" s="20"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>96</v>
       </c>
@@ -29004,7 +29014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>96</v>
       </c>
@@ -29051,7 +29061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>96</v>
       </c>
@@ -29099,7 +29109,7 @@
       </c>
       <c r="P429" s="20"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>96</v>
       </c>
@@ -29147,7 +29157,7 @@
       </c>
       <c r="P430" s="20"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>96</v>
       </c>
@@ -29194,7 +29204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>96</v>
       </c>
@@ -29241,7 +29251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>96</v>
       </c>
@@ -29288,7 +29298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>96</v>
       </c>
@@ -29335,7 +29345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>96</v>
       </c>
@@ -29382,7 +29392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>96</v>
       </c>
@@ -29429,7 +29439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>96</v>
       </c>
@@ -29477,7 +29487,7 @@
       </c>
       <c r="P437" s="20"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>96</v>
       </c>
@@ -29524,7 +29534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>96</v>
       </c>
@@ -29571,7 +29581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>96</v>
       </c>
@@ -29619,7 +29629,7 @@
       </c>
       <c r="P440" s="20"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>96</v>
       </c>
@@ -29667,7 +29677,7 @@
       </c>
       <c r="P441" s="20"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>96</v>
       </c>
@@ -29715,7 +29725,7 @@
       </c>
       <c r="P442" s="20"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>96</v>
       </c>
@@ -29762,7 +29772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>96</v>
       </c>
@@ -29809,7 +29819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>96</v>
       </c>
@@ -29858,7 +29868,7 @@
       <c r="P445" s="19"/>
       <c r="Q445" s="10"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>96</v>
       </c>
@@ -29905,7 +29915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>96</v>
       </c>
@@ -29952,7 +29962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>96</v>
       </c>
@@ -30000,7 +30010,7 @@
       </c>
       <c r="P448" s="20"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>96</v>
       </c>
@@ -30048,7 +30058,7 @@
       </c>
       <c r="P449" s="20"/>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>96</v>
       </c>
@@ -30096,7 +30106,7 @@
       </c>
       <c r="P450" s="20"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>96</v>
       </c>
@@ -30143,7 +30153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>96</v>
       </c>
@@ -30190,7 +30200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>96</v>
       </c>
@@ -30238,7 +30248,7 @@
       </c>
       <c r="P453" s="20"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>96</v>
       </c>
@@ -30286,7 +30296,7 @@
       </c>
       <c r="P454" s="20"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>96</v>
       </c>
@@ -30334,7 +30344,7 @@
       </c>
       <c r="P455" s="20"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>96</v>
       </c>
@@ -30381,7 +30391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>96</v>
       </c>
@@ -30429,7 +30439,7 @@
       </c>
       <c r="P457" s="20"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>96</v>
       </c>
@@ -30477,7 +30487,7 @@
       </c>
       <c r="P458" s="20"/>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>96</v>
       </c>
@@ -30524,7 +30534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>96</v>
       </c>
@@ -30571,7 +30581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>96</v>
       </c>
@@ -30618,7 +30628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>96</v>
       </c>
@@ -30665,7 +30675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>96</v>
       </c>
@@ -30713,7 +30723,7 @@
       </c>
       <c r="P463" s="20"/>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>96</v>
       </c>
@@ -30762,7 +30772,7 @@
       <c r="P464" s="20"/>
       <c r="R464" s="10"/>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>96</v>
       </c>
@@ -30809,7 +30819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>96</v>
       </c>
@@ -30857,7 +30867,7 @@
       </c>
       <c r="Q466" s="10"/>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>96</v>
       </c>
@@ -30906,7 +30916,7 @@
       <c r="P467" s="10"/>
       <c r="Q467" s="10"/>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>96</v>
       </c>
@@ -30954,7 +30964,7 @@
       </c>
       <c r="P468" s="20"/>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>96</v>
       </c>
@@ -31001,7 +31011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>96</v>
       </c>
@@ -31049,7 +31059,7 @@
       </c>
       <c r="P470" s="20"/>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>96</v>
       </c>
@@ -31097,7 +31107,7 @@
       </c>
       <c r="P471" s="25"/>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>96</v>
       </c>
@@ -31145,7 +31155,7 @@
       </c>
       <c r="P472" s="25"/>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>96</v>
       </c>
@@ -31195,7 +31205,7 @@
       <c r="Q473" s="16"/>
       <c r="R473" s="10"/>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>96</v>
       </c>
@@ -31243,7 +31253,7 @@
       </c>
       <c r="P474" s="22"/>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>96</v>
       </c>
@@ -31290,7 +31300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>96</v>
       </c>
@@ -31337,7 +31347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>96</v>
       </c>
@@ -31385,7 +31395,7 @@
       </c>
       <c r="P477" s="10"/>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>96</v>
       </c>
@@ -31432,7 +31442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>96</v>
       </c>
@@ -31479,7 +31489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>96</v>
       </c>
@@ -31529,7 +31539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>96</v>
       </c>
@@ -31579,7 +31589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>96</v>
       </c>
@@ -31630,7 +31640,7 @@
       </c>
       <c r="Q482" s="15"/>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>96</v>
       </c>
@@ -31679,7 +31689,7 @@
       <c r="P483" s="10"/>
       <c r="Q483" s="10"/>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>96</v>
       </c>
@@ -31726,7 +31736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>96</v>
       </c>
@@ -31774,7 +31784,7 @@
       </c>
       <c r="Q485" s="23"/>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>96</v>
       </c>
@@ -31822,7 +31832,7 @@
       </c>
       <c r="P486" s="10"/>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>96</v>
       </c>
@@ -31869,7 +31879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>96</v>
       </c>
@@ -31917,7 +31927,7 @@
       </c>
       <c r="P488" s="20"/>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>96</v>
       </c>
@@ -31967,7 +31977,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>96</v>
       </c>
@@ -32014,7 +32024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>96</v>
       </c>
@@ -32064,7 +32074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>76</v>
       </c>
@@ -32114,7 +32124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>76</v>
       </c>
@@ -32164,7 +32174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>76</v>
       </c>
@@ -32214,7 +32224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>76</v>
       </c>
@@ -32264,7 +32274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>76</v>
       </c>
@@ -32312,7 +32322,7 @@
       </c>
       <c r="Q496" s="10"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>76</v>
       </c>
@@ -32362,7 +32372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>76</v>
       </c>
@@ -32412,7 +32422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>76</v>
       </c>
@@ -32461,7 +32471,7 @@
       <c r="P499" s="20"/>
       <c r="Q499" s="10"/>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>76</v>
       </c>
@@ -32511,7 +32521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>76</v>
       </c>
@@ -32561,7 +32571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>76</v>
       </c>
@@ -32611,7 +32621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>76</v>
       </c>
@@ -32659,7 +32669,7 @@
       </c>
       <c r="P503" s="9"/>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>76</v>
       </c>
@@ -32706,7 +32716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>76</v>
       </c>
@@ -32755,7 +32765,7 @@
       <c r="P505" s="20"/>
       <c r="Q505" s="10"/>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>76</v>
       </c>
@@ -32804,7 +32814,7 @@
       <c r="P506" s="20"/>
       <c r="R506" s="10"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>76</v>
       </c>
@@ -32852,7 +32862,7 @@
       </c>
       <c r="P507" s="20"/>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>76</v>
       </c>
@@ -32900,7 +32910,7 @@
       </c>
       <c r="P508" s="20"/>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>76</v>
       </c>
@@ -32947,7 +32957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>76</v>
       </c>
@@ -32994,7 +33004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>76</v>
       </c>
@@ -33042,7 +33052,7 @@
       </c>
       <c r="P511" s="10"/>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>76</v>
       </c>
@@ -33089,7 +33099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>76</v>
       </c>
@@ -33136,7 +33146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>76</v>
       </c>
@@ -33183,7 +33193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>76</v>
       </c>
@@ -33231,7 +33241,7 @@
       </c>
       <c r="P515" s="13"/>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>76</v>
       </c>
@@ -33278,7 +33288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>76</v>
       </c>
@@ -33325,7 +33335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>76</v>
       </c>
@@ -33373,7 +33383,7 @@
       </c>
       <c r="P518" s="20"/>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>76</v>
       </c>
@@ -33420,7 +33430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>76</v>
       </c>
@@ -33467,7 +33477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>76</v>
       </c>
@@ -33515,7 +33525,7 @@
       </c>
       <c r="P521" s="20"/>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>76</v>
       </c>
@@ -33563,7 +33573,7 @@
       </c>
       <c r="P522" s="20"/>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>76</v>
       </c>
@@ -33611,7 +33621,7 @@
       </c>
       <c r="P523" s="20"/>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>76</v>
       </c>
@@ -33659,7 +33669,7 @@
       </c>
       <c r="P524" s="20"/>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>76</v>
       </c>
@@ -33706,7 +33716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>76</v>
       </c>
@@ -33753,7 +33763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>76</v>
       </c>
@@ -33800,7 +33810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>76</v>
       </c>
@@ -33848,7 +33858,7 @@
       </c>
       <c r="Q528" s="10"/>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>76</v>
       </c>
@@ -33896,7 +33906,7 @@
       </c>
       <c r="P529" s="20"/>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>76</v>
       </c>
@@ -33944,7 +33954,7 @@
       </c>
       <c r="P530" s="20"/>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>76</v>
       </c>
@@ -33992,7 +34002,7 @@
       </c>
       <c r="P531" s="20"/>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>76</v>
       </c>
@@ -34040,7 +34050,7 @@
       </c>
       <c r="P532" s="20"/>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>76</v>
       </c>
@@ -34087,7 +34097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>76</v>
       </c>
@@ -34136,7 +34146,7 @@
       <c r="P534" s="20"/>
       <c r="Q534" s="10"/>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>76</v>
       </c>
@@ -34184,7 +34194,7 @@
       </c>
       <c r="P535" s="20"/>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>76</v>
       </c>
@@ -34232,7 +34242,7 @@
       </c>
       <c r="P536" s="20"/>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>76</v>
       </c>
@@ -34279,7 +34289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>76</v>
       </c>
@@ -34327,7 +34337,7 @@
       </c>
       <c r="P538" s="20"/>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>76</v>
       </c>
@@ -34374,7 +34384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>76</v>
       </c>
@@ -34421,7 +34431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>76</v>
       </c>
@@ -34470,7 +34480,7 @@
       <c r="P541" s="20"/>
       <c r="R541" s="10"/>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>76</v>
       </c>
@@ -34517,7 +34527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>76</v>
       </c>
@@ -34564,7 +34574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>76</v>
       </c>
@@ -34611,7 +34621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>76</v>
       </c>
@@ -34659,7 +34669,7 @@
       </c>
       <c r="P545" s="20"/>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>76</v>
       </c>
@@ -34707,7 +34717,7 @@
       </c>
       <c r="P546" s="20"/>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>76</v>
       </c>
@@ -34754,7 +34764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>76</v>
       </c>
@@ -34802,7 +34812,7 @@
       </c>
       <c r="Q548" s="10"/>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>76</v>
       </c>
@@ -34849,7 +34859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>76</v>
       </c>
@@ -34897,7 +34907,7 @@
       </c>
       <c r="P550" s="20"/>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>76</v>
       </c>
@@ -34945,7 +34955,7 @@
       </c>
       <c r="P551" s="25"/>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>76</v>
       </c>
@@ -34993,7 +35003,7 @@
       </c>
       <c r="P552" s="13"/>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>76</v>
       </c>
@@ -35041,7 +35051,7 @@
       </c>
       <c r="P553" s="25"/>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>76</v>
       </c>
@@ -35088,7 +35098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>76</v>
       </c>
@@ -35136,7 +35146,7 @@
       </c>
       <c r="P555" s="22"/>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>76</v>
       </c>
@@ -35183,7 +35193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>76</v>
       </c>
@@ -35230,7 +35240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>76</v>
       </c>
@@ -35278,7 +35288,7 @@
       </c>
       <c r="P558" s="13"/>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>76</v>
       </c>
@@ -35326,7 +35336,7 @@
       </c>
       <c r="P559" s="13"/>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>76</v>
       </c>
@@ -35373,7 +35383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>76</v>
       </c>
@@ -35423,7 +35433,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>76</v>
       </c>
@@ -35473,7 +35483,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>76</v>
       </c>
@@ -35520,7 +35530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>76</v>
       </c>
@@ -35567,7 +35577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>76</v>
       </c>
@@ -35614,7 +35624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>76</v>
       </c>
@@ -35661,7 +35671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>76</v>
       </c>
@@ -35708,7 +35718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>76</v>
       </c>
@@ -35755,7 +35765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>76</v>
       </c>
@@ -35803,7 +35813,7 @@
       </c>
       <c r="P569" s="20"/>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>76</v>
       </c>
@@ -35851,7 +35861,7 @@
       </c>
       <c r="P570" s="20"/>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>76</v>
       </c>
@@ -35901,7 +35911,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>63</v>
       </c>
@@ -35951,7 +35961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>63</v>
       </c>
@@ -36001,7 +36011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>63</v>
       </c>
@@ -36051,7 +36061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>63</v>
       </c>
@@ -36101,7 +36111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>63</v>
       </c>
@@ -36151,7 +36161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>63</v>
       </c>
@@ -36201,7 +36211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>63</v>
       </c>
@@ -36249,7 +36259,7 @@
       </c>
       <c r="Q578" s="10"/>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>63</v>
       </c>
@@ -36299,7 +36309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>63</v>
       </c>
@@ -36349,7 +36359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>63</v>
       </c>
@@ -36399,7 +36409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>63</v>
       </c>
@@ -36448,7 +36458,7 @@
       <c r="P582" s="20"/>
       <c r="Q582" s="10"/>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>63</v>
       </c>
@@ -36498,7 +36508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>63</v>
       </c>
@@ -36547,7 +36557,7 @@
       <c r="P584" s="20"/>
       <c r="Q584" s="10"/>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>63</v>
       </c>
@@ -36596,7 +36606,7 @@
       <c r="P585" s="20"/>
       <c r="R585" s="10"/>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>63</v>
       </c>
@@ -36644,7 +36654,7 @@
       </c>
       <c r="P586" s="20"/>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>63</v>
       </c>
@@ -36692,7 +36702,7 @@
       </c>
       <c r="P587" s="20"/>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>63</v>
       </c>
@@ -36740,7 +36750,7 @@
       </c>
       <c r="Q588" s="10"/>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>63</v>
       </c>
@@ -36787,7 +36797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>63</v>
       </c>
@@ -36834,7 +36844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>63</v>
       </c>
@@ -36882,7 +36892,7 @@
       </c>
       <c r="P591" s="10"/>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>63</v>
       </c>
@@ -36929,7 +36939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>63</v>
       </c>
@@ -36976,7 +36986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>63</v>
       </c>
@@ -37024,7 +37034,7 @@
       </c>
       <c r="P594" s="10"/>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>63</v>
       </c>
@@ -37072,7 +37082,7 @@
       </c>
       <c r="P595" s="13"/>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>63</v>
       </c>
@@ -37120,7 +37130,7 @@
       </c>
       <c r="P596" s="20"/>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>63</v>
       </c>
@@ -37168,7 +37178,7 @@
       </c>
       <c r="P597" s="20"/>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>63</v>
       </c>
@@ -37216,7 +37226,7 @@
       </c>
       <c r="P598" s="20"/>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>63</v>
       </c>
@@ -37265,7 +37275,7 @@
       <c r="P599" s="20"/>
       <c r="R599" s="10"/>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>63</v>
       </c>
@@ -37313,7 +37323,7 @@
       </c>
       <c r="P600" s="20"/>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>63</v>
       </c>
@@ -37361,7 +37371,7 @@
       </c>
       <c r="P601" s="20"/>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>63</v>
       </c>
@@ -37409,7 +37419,7 @@
       </c>
       <c r="P602" s="20"/>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>63</v>
       </c>
@@ -37458,7 +37468,7 @@
       <c r="P603" s="20"/>
       <c r="Q603" s="10"/>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>63</v>
       </c>
@@ -37505,7 +37515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>63</v>
       </c>
@@ -37552,7 +37562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>63</v>
       </c>
@@ -37599,7 +37609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>63</v>
       </c>
@@ -37647,7 +37657,7 @@
       </c>
       <c r="P607" s="20"/>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>63</v>
       </c>
@@ -37696,7 +37706,7 @@
       <c r="P608" s="20"/>
       <c r="Q608" s="10"/>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>63</v>
       </c>
@@ -37744,7 +37754,7 @@
       </c>
       <c r="P609" s="20"/>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>63</v>
       </c>
@@ -37791,7 +37801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>63</v>
       </c>
@@ -37838,7 +37848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>63</v>
       </c>
@@ -37885,7 +37895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>63</v>
       </c>
@@ -37932,7 +37942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>63</v>
       </c>
@@ -37980,7 +37990,7 @@
       </c>
       <c r="P614" s="20"/>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>63</v>
       </c>
@@ -38027,7 +38037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>63</v>
       </c>
@@ -38074,7 +38084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>63</v>
       </c>
@@ -38123,7 +38133,7 @@
       <c r="P617" s="10"/>
       <c r="Q617" s="16"/>
     </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>63</v>
       </c>
@@ -38170,7 +38180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>63</v>
       </c>
@@ -38218,7 +38228,7 @@
       </c>
       <c r="P619" s="20"/>
     </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>63</v>
       </c>
@@ -38265,7 +38275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>63</v>
       </c>
@@ -38313,7 +38323,7 @@
       </c>
       <c r="P621" s="20"/>
     </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>63</v>
       </c>
@@ -38360,7 +38370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>63</v>
       </c>
@@ -38408,7 +38418,7 @@
       </c>
       <c r="P623" s="20"/>
     </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>63</v>
       </c>
@@ -38455,7 +38465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>63</v>
       </c>
@@ -38502,7 +38512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>63</v>
       </c>
@@ -38550,7 +38560,7 @@
       </c>
       <c r="P626" s="20"/>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>63</v>
       </c>
@@ -38598,7 +38608,7 @@
       </c>
       <c r="Q627" s="10"/>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>63</v>
       </c>
@@ -38645,7 +38655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>63</v>
       </c>
@@ -38692,7 +38702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>63</v>
       </c>
@@ -38740,7 +38750,7 @@
       </c>
       <c r="P630" s="20"/>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>63</v>
       </c>
@@ -38788,7 +38798,7 @@
       </c>
       <c r="P631" s="25"/>
     </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>63</v>
       </c>
@@ -38836,7 +38846,7 @@
       </c>
       <c r="P632" s="25"/>
     </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>63</v>
       </c>
@@ -38884,7 +38894,7 @@
       </c>
       <c r="P633" s="22"/>
     </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>63</v>
       </c>
@@ -38932,7 +38942,7 @@
       </c>
       <c r="P634" s="13"/>
     </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>63</v>
       </c>
@@ -38980,7 +38990,7 @@
       </c>
       <c r="P635" s="13"/>
     </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>63</v>
       </c>
@@ -39027,7 +39037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>63</v>
       </c>
@@ -39077,7 +39087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>63</v>
       </c>
@@ -39125,7 +39135,7 @@
       </c>
       <c r="P638" s="9"/>
     </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>63</v>
       </c>
@@ -39175,7 +39185,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>63</v>
       </c>
@@ -39225,7 +39235,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>63</v>
       </c>
@@ -39275,7 +39285,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>63</v>
       </c>
@@ -39325,7 +39335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>63</v>
       </c>
@@ -39372,7 +39382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>63</v>
       </c>
@@ -39419,7 +39429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>63</v>
       </c>
@@ -39466,7 +39476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>63</v>
       </c>
@@ -39513,7 +39523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>63</v>
       </c>
@@ -39560,7 +39570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>63</v>
       </c>
@@ -39607,7 +39617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>63</v>
       </c>
@@ -39655,7 +39665,7 @@
       </c>
       <c r="P649" s="20"/>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>63</v>
       </c>
@@ -39703,7 +39713,7 @@
       </c>
       <c r="P650" s="20"/>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>63</v>
       </c>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8550" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8550" uniqueCount="167">
   <si>
     <t>ToxBatch</t>
   </si>
@@ -508,6 +508,21 @@
   <si>
     <t>B18-8391</t>
   </si>
+  <si>
+    <t>Neanthes arenaceodentata</t>
+  </si>
+  <si>
+    <t>Los Angeles County Sanitation Districts</t>
+  </si>
+  <si>
+    <t>jordon</t>
+  </si>
+  <si>
+    <t>B18-8353</t>
+  </si>
+  <si>
+    <t>B18-8325</t>
+  </si>
 </sst>
 </file>
 
@@ -1074,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1174,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1171,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G2" s="3">
         <v>-88</v>
@@ -1215,7 +1230,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -1227,10 +1242,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
         <v>-88</v>
@@ -1283,10 +1298,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
         <v>-88</v>
@@ -1339,10 +1354,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
         <v>-88</v>
@@ -1395,10 +1410,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G6" s="3">
         <v>-88</v>
@@ -1451,10 +1466,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3">
         <v>-88</v>
@@ -1507,10 +1522,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G8" s="3">
         <v>-88</v>
@@ -1563,10 +1578,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
         <v>-88</v>
@@ -1619,10 +1634,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G10" s="3">
         <v>-88</v>
@@ -1675,10 +1690,10 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3">
         <v>-88</v>
@@ -1731,10 +1746,10 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G12" s="3">
         <v>-88</v>
@@ -1787,10 +1802,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G13" s="3">
         <v>-88</v>
@@ -1843,10 +1858,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G14" s="3">
         <v>-88</v>
@@ -1899,10 +1914,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G15" s="3">
         <v>-88</v>
@@ -1955,10 +1970,10 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3">
         <v>-88</v>
@@ -2011,10 +2026,10 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3">
         <v>-88</v>
@@ -2067,10 +2082,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3">
         <v>-88</v>
@@ -2123,10 +2138,10 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
         <v>-88</v>
@@ -2179,10 +2194,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G20" s="3">
         <v>-88</v>
@@ -2235,10 +2250,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3">
         <v>-88</v>
@@ -2291,10 +2306,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G22" s="3">
         <v>-88</v>
@@ -2347,10 +2362,10 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G23" s="3">
         <v>-88</v>
@@ -2403,10 +2418,10 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G24" s="3">
         <v>-88</v>
@@ -2459,10 +2474,10 @@
         <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G25" s="3">
         <v>-88</v>
@@ -2515,10 +2530,10 @@
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G26" s="3">
         <v>-88</v>
@@ -2571,10 +2586,10 @@
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3">
         <v>-88</v>
@@ -2627,10 +2642,10 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G28" s="3">
         <v>-88</v>
@@ -2683,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G29" s="3">
         <v>-88</v>
@@ -2739,10 +2754,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G30" s="3">
         <v>-88</v>
@@ -2795,10 +2810,10 @@
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G31" s="3">
         <v>-88</v>
@@ -2851,10 +2866,10 @@
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G32" s="3">
         <v>-88</v>
@@ -2907,10 +2922,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G33" s="3">
         <v>-88</v>
@@ -2963,10 +2978,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G34" s="3">
         <v>-88</v>
@@ -3019,10 +3034,10 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3">
         <v>-88</v>
@@ -3075,10 +3090,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G36" s="3">
         <v>-88</v>
@@ -3131,10 +3146,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G37" s="3">
         <v>-88</v>
@@ -3187,10 +3202,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G38" s="3">
         <v>-88</v>
@@ -3243,10 +3258,10 @@
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G39" s="3">
         <v>-88</v>
@@ -3299,10 +3314,10 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G40" s="3">
         <v>-88</v>
@@ -3355,10 +3370,10 @@
         <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G41" s="3">
         <v>-88</v>
@@ -3411,10 +3426,10 @@
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3">
         <v>-88</v>
@@ -3467,10 +3482,10 @@
         <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G43" s="3">
         <v>-88</v>
@@ -3523,10 +3538,10 @@
         <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G44" s="3">
         <v>-88</v>
@@ -3579,10 +3594,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G45" s="3">
         <v>-88</v>
@@ -3635,10 +3650,10 @@
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G46" s="3">
         <v>-88</v>
@@ -3691,10 +3706,10 @@
         <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G47" s="3">
         <v>-88</v>
@@ -3747,10 +3762,10 @@
         <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G48" s="3">
         <v>-88</v>
@@ -3803,10 +3818,10 @@
         <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G49" s="3">
         <v>-88</v>
@@ -3859,10 +3874,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G50" s="3">
         <v>-88</v>
@@ -3915,10 +3930,10 @@
         <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G51" s="3">
         <v>-88</v>
@@ -3971,10 +3986,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G52" s="3">
         <v>-88</v>
@@ -4027,10 +4042,10 @@
         <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G53" s="3">
         <v>-88</v>
@@ -4083,10 +4098,10 @@
         <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G54" s="3">
         <v>-88</v>
@@ -4139,10 +4154,10 @@
         <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G55" s="3">
         <v>-88</v>
@@ -4195,10 +4210,10 @@
         <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G56" s="3">
         <v>-88</v>
@@ -4251,10 +4266,10 @@
         <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G57" s="3">
         <v>-88</v>
@@ -4307,10 +4322,10 @@
         <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G58" s="3">
         <v>-88</v>
@@ -4363,10 +4378,10 @@
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G59" s="3">
         <v>-88</v>
@@ -4419,10 +4434,10 @@
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G60" s="3">
         <v>-88</v>
@@ -4475,10 +4490,10 @@
         <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G61" s="3">
         <v>-88</v>
@@ -4531,10 +4546,10 @@
         <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G62" s="3">
         <v>-88</v>
@@ -4587,10 +4602,10 @@
         <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G63" s="3">
         <v>-88</v>
@@ -4643,10 +4658,10 @@
         <v>21</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G64" s="3">
         <v>-88</v>
@@ -4699,10 +4714,10 @@
         <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G65" s="3">
         <v>-88</v>
@@ -4755,10 +4770,10 @@
         <v>21</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G66" s="3">
         <v>-88</v>
@@ -4811,10 +4826,10 @@
         <v>21</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G67" s="3">
         <v>-88</v>
@@ -4867,10 +4882,10 @@
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G68" s="3">
         <v>-88</v>
@@ -4923,10 +4938,10 @@
         <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G69" s="3">
         <v>-88</v>
@@ -4979,10 +4994,10 @@
         <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G70" s="3">
         <v>-88</v>
@@ -5035,10 +5050,10 @@
         <v>21</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G71" s="3">
         <v>-88</v>
@@ -5091,10 +5106,10 @@
         <v>21</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G72" s="3">
         <v>-88</v>
@@ -5147,10 +5162,10 @@
         <v>21</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G73" s="3">
         <v>-88</v>
@@ -5203,10 +5218,10 @@
         <v>21</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G74" s="3">
         <v>-88</v>
@@ -5259,10 +5274,10 @@
         <v>21</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G75" s="3">
         <v>-88</v>
@@ -5315,10 +5330,10 @@
         <v>21</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G76" s="3">
         <v>-88</v>
@@ -5371,10 +5386,10 @@
         <v>21</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G77" s="3">
         <v>-88</v>
@@ -5427,10 +5442,10 @@
         <v>21</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G78" s="3">
         <v>-88</v>
@@ -5483,10 +5498,10 @@
         <v>21</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G79" s="3">
         <v>-88</v>
@@ -5539,10 +5554,10 @@
         <v>21</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G80" s="3">
         <v>-88</v>
@@ -5595,10 +5610,10 @@
         <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G81" s="3">
         <v>-88</v>
@@ -5651,10 +5666,10 @@
         <v>21</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G82" s="3">
         <v>-88</v>
@@ -5707,10 +5722,10 @@
         <v>21</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G83" s="3">
         <v>-88</v>
@@ -5763,10 +5778,10 @@
         <v>21</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G84" s="3">
         <v>-88</v>
@@ -5819,10 +5834,10 @@
         <v>21</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G85" s="3">
         <v>-88</v>
@@ -5875,10 +5890,10 @@
         <v>21</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G86" s="3">
         <v>-88</v>
@@ -5931,10 +5946,10 @@
         <v>21</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G87" s="3">
         <v>-88</v>
@@ -5987,10 +6002,10 @@
         <v>21</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G88" s="3">
         <v>-88</v>
@@ -6043,10 +6058,10 @@
         <v>21</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G89" s="3">
         <v>-88</v>
@@ -6099,10 +6114,10 @@
         <v>21</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G90" s="3">
         <v>-88</v>
@@ -6155,10 +6170,10 @@
         <v>21</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G91" s="3">
         <v>-88</v>
@@ -6211,10 +6226,10 @@
         <v>21</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G92" s="3">
         <v>-88</v>
@@ -6267,10 +6282,10 @@
         <v>21</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G93" s="3">
         <v>-88</v>
@@ -6323,10 +6338,10 @@
         <v>21</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G94" s="3">
         <v>-88</v>
@@ -6379,10 +6394,10 @@
         <v>21</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G95" s="3">
         <v>-88</v>
@@ -6435,10 +6450,10 @@
         <v>21</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G96" s="3">
         <v>-88</v>
@@ -6491,10 +6506,10 @@
         <v>21</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G97" s="3">
         <v>-88</v>
@@ -6547,10 +6562,10 @@
         <v>21</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G98" s="3">
         <v>-88</v>
@@ -6603,10 +6618,10 @@
         <v>21</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G99" s="3">
         <v>-88</v>
@@ -6659,10 +6674,10 @@
         <v>21</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G100" s="3">
         <v>-88</v>
@@ -6715,10 +6730,10 @@
         <v>21</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G101" s="3">
         <v>-88</v>
@@ -6771,10 +6786,10 @@
         <v>21</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G102" s="3">
         <v>-88</v>
@@ -6827,10 +6842,10 @@
         <v>21</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G103" s="3">
         <v>-88</v>
@@ -6883,10 +6898,10 @@
         <v>21</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G104" s="3">
         <v>-88</v>
@@ -6939,10 +6954,10 @@
         <v>21</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G105" s="3">
         <v>-88</v>
@@ -6995,10 +7010,10 @@
         <v>21</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G106" s="3">
         <v>-88</v>
@@ -7051,10 +7066,10 @@
         <v>21</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G107" s="3">
         <v>-88</v>
@@ -7107,10 +7122,10 @@
         <v>21</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G108" s="3">
         <v>-88</v>
@@ -7163,10 +7178,10 @@
         <v>21</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G109" s="3">
         <v>-88</v>
@@ -7219,10 +7234,10 @@
         <v>21</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G110" s="3">
         <v>-88</v>
@@ -7275,10 +7290,10 @@
         <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G111" s="3">
         <v>-88</v>
@@ -7331,10 +7346,10 @@
         <v>21</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G112" s="3">
         <v>-88</v>
@@ -7387,10 +7402,10 @@
         <v>21</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G113" s="3">
         <v>-88</v>
@@ -7443,10 +7458,10 @@
         <v>21</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G114" s="3">
         <v>-88</v>
@@ -7499,10 +7514,10 @@
         <v>21</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G115" s="3">
         <v>-88</v>
@@ -7555,10 +7570,10 @@
         <v>21</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G116" s="3">
         <v>-88</v>
@@ -7611,10 +7626,10 @@
         <v>21</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G117" s="3">
         <v>-88</v>
@@ -7667,10 +7682,10 @@
         <v>21</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G118" s="3">
         <v>-88</v>
@@ -7723,10 +7738,10 @@
         <v>21</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G119" s="3">
         <v>-88</v>
@@ -7779,10 +7794,10 @@
         <v>21</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G120" s="3">
         <v>-88</v>
@@ -7835,10 +7850,10 @@
         <v>21</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G121" s="3">
         <v>-88</v>
@@ -7891,10 +7906,10 @@
         <v>21</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G122" s="3">
         <v>-88</v>
@@ -7947,10 +7962,10 @@
         <v>21</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G123" s="3">
         <v>-88</v>
@@ -8003,10 +8018,10 @@
         <v>21</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G124" s="3">
         <v>-88</v>
@@ -8059,10 +8074,10 @@
         <v>21</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G125" s="3">
         <v>-88</v>
@@ -8115,10 +8130,10 @@
         <v>21</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G126" s="3">
         <v>-88</v>
@@ -8171,10 +8186,10 @@
         <v>21</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G127" s="3">
         <v>-88</v>
@@ -8227,10 +8242,10 @@
         <v>21</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G128" s="3">
         <v>-88</v>
@@ -8283,10 +8298,10 @@
         <v>21</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G129" s="3">
         <v>-88</v>
@@ -8339,10 +8354,10 @@
         <v>21</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G130" s="3">
         <v>-88</v>
@@ -8395,10 +8410,10 @@
         <v>21</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G131" s="3">
         <v>-88</v>
